--- a/database/hey.xlsx
+++ b/database/hey.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F2C714-910F-0C41-B398-7543A4BD40EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\content5\Desktop\Bitbodinvitelinkbot\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EB795B-F006-454C-9A8C-C381EA6F0806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>09155200109</t>
   </si>
@@ -506,19 +511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.57421875" customWidth="1"/>
-    <col min="2" max="2" width="47.62109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -542,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -550,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -566,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -574,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -582,7 +587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -590,7 +595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -598,7 +603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -606,7 +611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -614,7 +619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -622,12 +627,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
